--- a/PREGUNTAS Y RESPUESTAS2.xlsx
+++ b/PREGUNTAS Y RESPUESTAS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\gpt3-up-testakira\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\gpt3-up-testakira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553D909B-5C29-4ED0-BE25-BD2991408546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3DF5A3-24FC-420E-A3B0-9B92E54C2231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EB5BE863-A437-4CD3-BA7A-765BC4B4E660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5BE863-A437-4CD3-BA7A-765BC4B4E660}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="607">
   <si>
     <t>¿Cúal es mi malla académica?</t>
   </si>
@@ -1747,6 +1747,105 @@
   </si>
   <si>
     <t>Los cursos obligatorios son las asignaturas que debes de llevar sí o sí en tu carrera y las puedes encontrar en tu plan de estudios. Para conocer si puedes llevar un curso obligatorio que no existe en tu listado de cursos puedes revisarlo ingresando a https://sar.up.edu.pe/planes-de-estudio/, seleccionar tu “Sumillas, Requisitos y Equivalencias” e ingresa a la sección de Equivalencias para tu Plan de Estudios correspondiente para verificar el estado actual en créditos y nombre del curso. Para conocer los cursos obligatorios para todas las carreras lo puedes ingresar a la sección de Normas de tu carrera y Plan de Estudios.</t>
+  </si>
+  <si>
+    <t>Créditos para obtener el título, graduarte o Egresar</t>
+  </si>
+  <si>
+    <t>Para graduarte y obtener tu título, necesitas aprobar todos los créditos de tu plan académico o plan de estudios. Puedes revisarlo ingresando a https://sar.up.edu.pe/planes-de-estudio/, seleccionando tu departamento académico y carrera e ingresando a la opción cursos, al final de la hoja aparecen los créditos necesarios para egresar de tu carrera.</t>
+  </si>
+  <si>
+    <t>Un curso extraacadémico es una actividad que se realiza fuera del ámbito académico o educativo. Por ejemplo, un curso de música, de idiomas, de deportes o de arte que no forma parte del plan de estudios oficial. Los cursos extraacadémicos son una excelente manera de aprender nuevas habilidades y mejorar las existentes. Además, pueden ser una forma divertida y emocionante de conocer gente nueva y hacer amigos con intereses similares. Estos cursos tambien son llamados en la Universidad del Pacífico como cursos EFE o cursos EFEs o cursos paraacadémicos. Los cursos EFE que puedes llevar por ciclo en caso de ser ingresante desde el semestre académico 2017-1 debes llevar 12 créditos o cursos EFE. En caso haber ingresado antes de este periodo solo debes llevar los 9 créditos para académicos.</t>
+  </si>
+  <si>
+    <t>DFE o Dirección de Formación Académica</t>
+  </si>
+  <si>
+    <t>Cursos extraacadémicos o cursos paraacadémicos</t>
+  </si>
+  <si>
+    <t>Cursos EFE o EFEs</t>
+  </si>
+  <si>
+    <t>La Dirección de Formación Académica (DFE) se encuentra en el pabellón Z, en el primer piso, en la casa del estudiante. Aquí podrás consultar información sobre los cursos EFEs.</t>
+  </si>
+  <si>
+    <t>Las experiencias formativas académicas o tambien llamados EFEs, son actividades académicas extraacadémicas obligatorias  (12 créditos)  que tienen como objetivo contribuir a tu formación profesional e integral como estudiante. La inscripción a un EFE se realiza durante el proceso de matrícula, en la sección de cursos “Extraacadémicos”. Podrás consulta información sobre estos cursos en el DFE.</t>
+  </si>
+  <si>
+    <t>Convalidación de cursos EFE</t>
+  </si>
+  <si>
+    <t>Los cursos EFE se dividen en los siguientes tipos: sello UP, interpersonal, intrapersonal, servicio social universitario, liderazgo, innovación e investigación, internacionalización, taller de preparación para la vida profesional y prácticas preprofesionales. La posibilidad de convalidación de los EFE depende del tipo de curso que se haya tomado.</t>
+  </si>
+  <si>
+    <t>SSU o servicio social o voluntariado</t>
+  </si>
+  <si>
+    <t>SSU son las siglas de Servicio Social Universitario o también se le conoce como servicio voluntariado. Si deseas obtener el crédito de servicio social universitario necesitas 55 créditos acumulados, tener 18 años o más y haber completado los créditos de habilidades intrapersonales e interpersonales. Además, hay opciones de convalidación disponibles.</t>
+  </si>
+  <si>
+    <t>Para inscribirte en el taller de preparación para la vida profesional necesitas 95 créditos acumulados (solo para la carrera de Derecho se necesitan 55 créditos acumulados) y haber completado los créditos de habilidades intrapersonales e interpersonales. Además, hay opciones de convalidación disponibles.</t>
+  </si>
+  <si>
+    <t>Taller de preparación para la vida profesional</t>
+  </si>
+  <si>
+    <t>Un intercambio estudiantil es un programa en el que un estudiante viaja a otro país para aprender su lengua y cultura. Los intercambios estudiantiles pueden ser beneficiosos para el desarrollo personal y profesional de los estudiantes. También se le conoce como outgoing.</t>
+  </si>
+  <si>
+    <t>Outgoing o Intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Crédito de internacionalización o intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Para solicitar la convalidación del crédito interpersonal debes tener reconocido el crédito correspondiente a la EFE de introducción a las competencias Sello UP (habilidades socioemocionales). Además, ser de los deportistas destacados o ser miembro de selección deportiva UP.</t>
+  </si>
+  <si>
+    <t>Crédito interpersonal</t>
+  </si>
+  <si>
+    <t>Obtener o convalidar crédito servicio social o voluntariado</t>
+  </si>
+  <si>
+    <t>Obtener o convalidar crédito de liderazgo</t>
+  </si>
+  <si>
+    <t>Solo es posible obtener un crédito por Servicio Social Universitario a través del proceso de convalidación. Para ello, deberás seguir las indicaciones que se incluyen en la convocatoria que emitirá el DFE al inicio del semestre académico, en la cual se establecerán los requisitos y plazos para llevar a cabo este trámite. Es importante que inscribas tu experiencia y esperes a que sea evaluada para poder obtener el crédito correspondiente.</t>
+  </si>
+  <si>
+    <t>Si prefieres no realizar una EFE de liderazgo, no te preocupes, existen varias alternativas para obtener el crédito. Puedes ser parte de la representación estudiantil (REUP), destacarte como REA, asumir un cargo de liderazgo en el CEUP (como Presidente, Secretario General o Director de Área) o demostrar tus habilidades como líder en alguna Organización Estudiantil UP.</t>
+  </si>
+  <si>
+    <t>Si prefieres no llevar el curso de crédito de innovación o investigación, existen otras alternativas que puedes considerar: por ejemplo, si has sido premiado o reconocido por tus logros en innovación o investigación por una entidad o concurso reconocido, deberás presentar el documento que lo acredite ante Emprende UP o CIUP, quienes verificarán su autenticidad antes de que lo lleves a la DFE. También puedes sustituir este curso si has colaborado como asistente de investigación con un profesor de la Universidad que tenga al menos 3 semestres de vinculación y has cumplido al menos 50 horas efectivas de trabajo.</t>
+  </si>
+  <si>
+    <t>Obtener o convalidar crédito de innovación o investigación</t>
+  </si>
+  <si>
+    <t>Los estudiantes que forman parte de las selecciones deportivas UP, elencos artísticos UP o brigadas UP y han permanecido en ellas durante dos semestres consecutivos, reciben la convalidación automática de un año de permanencia (2 créditos).</t>
+  </si>
+  <si>
+    <t>Obtener o convalidar créditos por pertenecer a una selección o elenco</t>
+  </si>
+  <si>
+    <t>Obtener o convalidar créditos de liderazgo</t>
+  </si>
+  <si>
+    <t>La convalidación del crédito de liderazgo está disponible para aquellos que son líderes destacados en una organización juvenil reconocida por la DFE.</t>
+  </si>
+  <si>
+    <t>Fechas y duración de intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>La universidad destino determina el periodo de viaje, que suele ser entre enero y mayo durante el semestre 2020-I; sin embargo, varía de acuerdo a la universidad.</t>
+  </si>
+  <si>
+    <t>El international day es un evento en el que podrás conocer más sobre el intercambio estudiantil e interactuar con estudiantes de nuestras universidades partners, conocer más sobre sus culturas y además hacer todas las preguntas que quieras a las principales organizaciones que brindan apoyo financiero a los estudiantes de intercambio, todo esto en un solo día y en un solo lugar: la Plaza Geis, el 16 de octubre del 2019, desde las 11 de la mañana hasta las 3 de la tarde. Si quieres saber más sobre el International Day, visita la ORI que está ubicada en el salón 402 del pabellón E.</t>
+  </si>
+  <si>
+    <t>International Day y la ORI</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1861,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,6 +1934,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1848,7 +2007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1900,6 +2059,36 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2216,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B9E24-B455-4B83-8575-F00C6E8FFDFD}">
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,2457 +2482,2593 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="29" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="34" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="113" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="114" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="115" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>60</v>
+      <c r="A135" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>61</v>
+      <c r="A136" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>62</v>
+      <c r="A137" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>63</v>
+      <c r="A138" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>64</v>
+      <c r="A139" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>65</v>
+      <c r="A140" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>66</v>
+      <c r="A141" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>67</v>
+      <c r="A142" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>68</v>
+      <c r="A143" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>69</v>
+      <c r="A144" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+    <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+    <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+    <row r="217" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+    <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+    <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+    <row r="245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+    <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+    <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B252" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B253" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B254" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+    <row r="258" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+    <row r="259" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+    <row r="260" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>482</v>
+        <v>237</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>487</v>
+        <v>238</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>489</v>
+        <v>165</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>491</v>
+        <v>166</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>494</v>
+        <v>169</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>496</v>
+        <v>170</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>181</v>
+        <v>514</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>182</v>
+        <v>515</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>251</v>
+        <v>488</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>524</v>
+        <v>241</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>256</v>
+        <v>489</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>257</v>
+        <v>491</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>185</v>
+        <v>494</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>186</v>
+        <v>496</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>531</v>
+        <v>243</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>532</v>
+        <v>244</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>535</v>
+        <v>245</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>262</v>
+        <v>522</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>553</v>
+        <v>260</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>551</v>
+        <v>188</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B330" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B331" s="2" t="s">
         <v>549</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B117">
-    <sortCondition ref="B4:B117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B121">
+    <sortCondition ref="B4:B121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PREGUNTAS Y RESPUESTAS2.xlsx
+++ b/PREGUNTAS Y RESPUESTAS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\gpt3-up-testakira\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\gpt3-up-testakira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3DF5A3-24FC-420E-A3B0-9B92E54C2231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6024424-0945-4AD5-AA05-8841FA1BCD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5BE863-A437-4CD3-BA7A-765BC4B4E660}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EB5BE863-A437-4CD3-BA7A-765BC4B4E660}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="613">
   <si>
     <t>¿Cúal es mi malla académica?</t>
   </si>
@@ -1846,6 +1846,24 @@
   </si>
   <si>
     <t>International Day y la ORI</t>
+  </si>
+  <si>
+    <t>Requisitos de intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Si deseas postular a la Universidad del Pacífico, es necesario cumplir con ciertos requisitos, tales como haber aprobado al menos 20 créditos y contar con un promedio acumulado de 13.00 o superior. Además, es imprescindible tener un nivel avanzado de inglés y cancelar un derecho de inscripción no reembolsable de S/150. Asimismo, debes asegurarte de no tener deudas pendientes con la universidad y presentar la carta de aceptación de vacantes y la carta de responsabilidad de padres o tutores. Si, por otro lado, estás interesado en participar en el programa de intercambio, se te solicitará la presentación de un certificado de inglés, así como la carta de aceptación de vacantes desde el siguiente link: https://campusvirtual.up.edu.pe/outgoing/pdf/aceptacion-vacante-alumno.pdf y la carta de responsabilidad de padres o tutores desde el siguiente link https://campusvirtual.up.edu.pe/outgoing/pdf/aceptacion-vacante-padres.pdf.</t>
+  </si>
+  <si>
+    <t>Universidades con convenio para intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Para conocer las universidades con las que tenemos convenio en nuestro programa de intercambio, puedes visitar el siguiente enlace http://intercambio.up.edu.pe/UP_OutGoing_Web/Universidad/ConsultaUniversidad. Allí encontrarás una lista completa y actualizada de todas las instituciones con las que tenemos acuerdo. Esta información es esencial para que puedas elegir la universidad de tu preferencia y realizar una experiencia académica enriquecedora en el extranjero</t>
+  </si>
+  <si>
+    <t>Vacantes para intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Nivel de idioma para intercambio estudiantil</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2024,9 +2042,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2037,9 +2052,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2089,6 +2101,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2405,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B9E24-B455-4B83-8575-F00C6E8FFDFD}">
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2554,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2547,7 +2562,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2555,7 +2570,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2563,7 +2578,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2571,7 +2586,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2579,7 +2594,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>289</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2587,7 +2602,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2595,7 +2610,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2603,7 +2618,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2611,7 +2626,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2619,7 +2634,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2627,7 +2642,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2635,15 +2650,15 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:2" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2651,15 +2666,15 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2667,7 +2682,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2675,15 +2690,15 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2691,15 +2706,15 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="2" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>283</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2707,7 +2722,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2715,7 +2730,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2723,7 +2738,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2731,7 +2746,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2739,7 +2754,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2747,7 +2762,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2755,7 +2770,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>205</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2763,7 +2778,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2771,7 +2786,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>204</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2779,7 +2794,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>211</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2787,7 +2802,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2795,7 +2810,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>215</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2803,7 +2818,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2811,7 +2826,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2819,7 +2834,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="13" t="s">
         <v>297</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2827,7 +2842,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2835,7 +2850,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2843,7 +2858,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2851,7 +2866,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>306</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -2859,7 +2874,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2867,7 +2882,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="14" t="s">
         <v>308</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2875,7 +2890,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="14" t="s">
         <v>309</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2883,7 +2898,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="14" t="s">
         <v>310</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2891,7 +2906,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2899,7 +2914,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2907,7 +2922,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="12" t="s">
         <v>312</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2915,7 +2930,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>314</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2923,7 +2938,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>316</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2931,7 +2946,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>317</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2939,7 +2954,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>320</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2947,7 +2962,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="12" t="s">
         <v>302</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2955,7 +2970,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2963,7 +2978,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2971,7 +2986,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>334</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2979,7 +2994,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="15" t="s">
         <v>335</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2987,7 +3002,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="15" t="s">
         <v>336</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2995,7 +3010,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3003,7 +3018,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3011,7 +3026,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3019,7 +3034,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3027,7 +3042,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="16" t="s">
         <v>329</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3035,7 +3050,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="16" t="s">
         <v>331</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3043,7 +3058,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3051,7 +3066,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3059,7 +3074,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="17" t="s">
         <v>340</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3067,7 +3082,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="17" t="s">
         <v>341</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3075,7 +3090,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="17" t="s">
         <v>342</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3083,7 +3098,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3091,7 +3106,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3099,7 +3114,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3107,7 +3122,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3115,7 +3130,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="17" t="s">
         <v>348</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3123,7 +3138,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="17" t="s">
         <v>349</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3131,7 +3146,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="17" t="s">
         <v>350</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3139,7 +3154,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3147,7 +3162,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3155,7 +3170,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3163,7 +3178,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="18" t="s">
         <v>366</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3171,7 +3186,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="18" t="s">
         <v>371</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3179,7 +3194,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="18" t="s">
         <v>369</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3187,7 +3202,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="18" t="s">
         <v>373</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3195,7 +3210,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="18" t="s">
         <v>397</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3203,7 +3218,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="18" t="s">
         <v>399</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3211,7 +3226,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3219,7 +3234,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="18" t="s">
         <v>224</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3227,7 +3242,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3235,7 +3250,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3243,7 +3258,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3251,7 +3266,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3259,7 +3274,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3267,7 +3282,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3275,7 +3290,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="19" t="s">
         <v>380</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3283,7 +3298,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="19" t="s">
         <v>390</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3291,7 +3306,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="19" t="s">
         <v>382</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3299,7 +3314,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="19" t="s">
         <v>383</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3307,7 +3322,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="19" t="s">
         <v>384</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3315,7 +3330,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="19" t="s">
         <v>387</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3323,7 +3338,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="19" t="s">
         <v>388</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3331,7 +3346,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="19" t="s">
         <v>389</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3339,7 +3354,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="1" t="s">
         <v>579</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3347,7 +3362,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3355,7 +3370,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3363,7 +3378,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3371,7 +3386,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -3379,7 +3394,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -3387,7 +3402,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -3395,7 +3410,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -3403,7 +3418,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -3411,7 +3426,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -3419,7 +3434,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -3427,7 +3442,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -3435,7 +3450,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -3443,7 +3458,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -3451,7 +3466,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -3459,7 +3474,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -3467,7 +3482,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -3475,7 +3490,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="23" t="s">
+      <c r="A133" s="21" t="s">
         <v>406</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -3483,7 +3498,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -3491,7 +3506,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -3499,7 +3514,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -3507,7 +3522,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -3515,7 +3530,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -3523,7 +3538,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -3531,7 +3546,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -3539,7 +3554,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
+      <c r="A141" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -3547,7 +3562,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -3555,7 +3570,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -3563,7 +3578,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="23" t="s">
+      <c r="A144" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -3571,7 +3586,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="23" t="s">
+      <c r="A145" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -3579,7 +3594,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -3587,7 +3602,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -3595,7 +3610,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -3603,7 +3618,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="23" t="s">
+      <c r="A149" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -3611,7 +3626,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -3619,7 +3634,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="24" t="s">
+      <c r="A151" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -3627,7 +3642,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="24" t="s">
+      <c r="A152" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -3635,7 +3650,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="24" t="s">
+      <c r="A153" s="22" t="s">
         <v>410</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -3643,7 +3658,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -3651,7 +3666,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -3659,7 +3674,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -3667,7 +3682,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -3675,7 +3690,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
+      <c r="A158" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -3683,7 +3698,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -3691,7 +3706,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="24" t="s">
+      <c r="A160" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -3699,7 +3714,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -3707,7 +3722,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="24" t="s">
+      <c r="A162" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -3715,7 +3730,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -3723,7 +3738,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -3731,7 +3746,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -3739,7 +3754,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="24" t="s">
+      <c r="A166" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -3747,7 +3762,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -3755,7 +3770,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -3763,7 +3778,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="1" t="s">
         <v>587</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -3771,7 +3786,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -3779,7 +3794,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -3787,7 +3802,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -3795,7 +3810,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -3803,7 +3818,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -3811,7 +3826,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="23" t="s">
         <v>92</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -3819,7 +3834,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="23" t="s">
         <v>93</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -3827,7 +3842,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -3835,7 +3850,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -3843,7 +3858,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -3851,7 +3866,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="23" t="s">
         <v>97</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -3859,7 +3874,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="23" t="s">
         <v>98</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -3867,7 +3882,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -3875,7 +3890,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="23" t="s">
         <v>100</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -3883,7 +3898,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="23" t="s">
         <v>101</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -3891,7 +3906,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -3899,7 +3914,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -3907,7 +3922,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="23" t="s">
         <v>104</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -3915,7 +3930,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="1" t="s">
         <v>589</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -3923,7 +3938,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="26" t="s">
+      <c r="A189" s="24" t="s">
         <v>436</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -3931,7 +3946,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="26" t="s">
+      <c r="A190" s="24" t="s">
         <v>472</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -3939,7 +3954,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="26" t="s">
+      <c r="A191" s="24" t="s">
         <v>438</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -3947,7 +3962,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -3955,7 +3970,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="22" t="s">
+      <c r="A193" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -3963,7 +3978,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="22" t="s">
+      <c r="A194" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -3971,7 +3986,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="22" t="s">
+      <c r="A195" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -3979,7 +3994,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="22" t="s">
+      <c r="A196" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -3987,7 +4002,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="22" t="s">
+      <c r="A197" s="20" t="s">
         <v>443</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -3995,7 +4010,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="22" t="s">
+      <c r="A198" s="20" t="s">
         <v>445</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -4003,7 +4018,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="22" t="s">
+      <c r="A199" s="20" t="s">
         <v>450</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -4011,7 +4026,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
+      <c r="A200" s="20" t="s">
         <v>451</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -4019,7 +4034,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="22" t="s">
+      <c r="A201" s="20" t="s">
         <v>452</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -4027,7 +4042,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="1" t="s">
         <v>592</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -4035,7 +4050,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -4043,7 +4058,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="24" t="s">
+      <c r="A204" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -4051,7 +4066,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="24" t="s">
+      <c r="A205" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -4059,7 +4074,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="22" t="s">
         <v>112</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -4067,7 +4082,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="1" t="s">
         <v>593</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -4075,7 +4090,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -4083,7 +4098,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -4091,7 +4106,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -4099,7 +4114,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -4107,7 +4122,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -4115,7 +4130,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -4123,7 +4138,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -4131,7 +4146,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="23" t="s">
+      <c r="A215" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -4139,7 +4154,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="23" t="s">
+      <c r="A216" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -4147,7 +4162,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="1" t="s">
         <v>598</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -4155,7 +4170,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="27" t="s">
+      <c r="A218" s="25" t="s">
         <v>121</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -4163,7 +4178,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A219" s="27" t="s">
+      <c r="A219" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -4171,7 +4186,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A220" s="27" t="s">
+      <c r="A220" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -4179,7 +4194,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="1" t="s">
         <v>600</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -4187,7 +4202,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="22" t="s">
+      <c r="A222" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -4195,7 +4210,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="22" t="s">
+      <c r="A223" s="20" t="s">
         <v>125</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -4203,7 +4218,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="22" t="s">
+      <c r="A224" s="20" t="s">
         <v>126</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -4211,7 +4226,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="22" t="s">
+      <c r="A225" s="20" t="s">
         <v>267</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -4219,7 +4234,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="22" t="s">
+      <c r="A226" s="20" t="s">
         <v>127</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -4227,7 +4242,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="22" t="s">
+      <c r="A227" s="20" t="s">
         <v>128</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -4235,7 +4250,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="1" t="s">
         <v>601</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -4243,7 +4258,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="24" t="s">
+      <c r="A229" s="22" t="s">
         <v>129</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -4251,7 +4266,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="24" t="s">
+      <c r="A230" s="22" t="s">
         <v>130</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -4259,7 +4274,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="24" t="s">
+      <c r="A231" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -4267,7 +4282,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="24" t="s">
+      <c r="A232" s="22" t="s">
         <v>132</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -4275,7 +4290,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="24" t="s">
+      <c r="A233" s="22" t="s">
         <v>133</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -4283,7 +4298,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="24" t="s">
+      <c r="A234" s="22" t="s">
         <v>134</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -4291,7 +4306,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="1" t="s">
         <v>603</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -4299,7 +4314,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="23" t="s">
+      <c r="A236" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -4307,7 +4322,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="23" t="s">
+      <c r="A237" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -4315,7 +4330,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -4323,7 +4338,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="23" t="s">
+      <c r="A239" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -4331,7 +4346,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="23" t="s">
+      <c r="A240" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -4339,7 +4354,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="23" t="s">
+      <c r="A241" s="21" t="s">
         <v>466</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -4347,7 +4362,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="23" t="s">
+      <c r="A242" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -4355,7 +4370,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="23" t="s">
+      <c r="A243" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -4363,7 +4378,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="23" t="s">
+      <c r="A244" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -4371,7 +4386,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="1" t="s">
         <v>606</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -4379,7 +4394,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="28" t="s">
+      <c r="A246" s="26" t="s">
         <v>144</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -4387,7 +4402,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="28" t="s">
+      <c r="A247" s="26" t="s">
         <v>145</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -4395,7 +4410,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="28" t="s">
+      <c r="A248" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -4403,7 +4418,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="28" t="s">
+      <c r="A249" s="26" t="s">
         <v>147</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -4411,7 +4426,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="26" t="s">
         <v>148</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -4419,7 +4434,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="28" t="s">
+      <c r="A251" s="26" t="s">
         <v>477</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -4427,7 +4442,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="28" t="s">
+      <c r="A252" s="26" t="s">
         <v>478</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -4435,7 +4450,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="28" t="s">
+      <c r="A253" s="26" t="s">
         <v>149</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -4443,7 +4458,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="28" t="s">
+      <c r="A254" s="26" t="s">
         <v>150</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -4451,7 +4466,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="28" t="s">
+      <c r="A255" s="26" t="s">
         <v>501</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -4459,7 +4474,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="28" t="s">
+      <c r="A256" s="26" t="s">
         <v>151</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -4467,602 +4482,636 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="28" t="s">
+      <c r="A257" s="26" t="s">
         <v>152</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+    <row r="258" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A258" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+    <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B262" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B264" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B265" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B267" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B272" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B273" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+    <row r="275" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B276" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B277" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B278" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B279" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B280" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B281" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B282" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B283" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B284" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B285" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B286" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B287" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B289" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B290" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B291" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="27"/>
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B294" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+    <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B295" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B296" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B297" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+    <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B298" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B299" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A300" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B301" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B303" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B304" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B305" s="2" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>534</v>
+        <v>252</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>262</v>
+        <v>534</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B324" s="2" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>544</v>
+        <v>266</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B333" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+    <row r="334" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B334" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+    <row r="335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B335" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B336" s="2" t="s">
         <v>549</v>
       </c>
     </row>

--- a/PREGUNTAS Y RESPUESTAS2.xlsx
+++ b/PREGUNTAS Y RESPUESTAS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\gpt3-up-testakira\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\gpt3-up-testakira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6024424-0945-4AD5-AA05-8841FA1BCD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4E54E-EBAD-4C2A-A6A9-D1B4D70154E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EB5BE863-A437-4CD3-BA7A-765BC4B4E660}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB5BE863-A437-4CD3-BA7A-765BC4B4E660}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="619">
   <si>
     <t>¿Cúal es mi malla académica?</t>
   </si>
@@ -1857,13 +1857,31 @@
     <t>Universidades con convenio para intercambio estudiantil</t>
   </si>
   <si>
-    <t>Para conocer las universidades con las que tenemos convenio en nuestro programa de intercambio, puedes visitar el siguiente enlace http://intercambio.up.edu.pe/UP_OutGoing_Web/Universidad/ConsultaUniversidad. Allí encontrarás una lista completa y actualizada de todas las instituciones con las que tenemos acuerdo. Esta información es esencial para que puedas elegir la universidad de tu preferencia y realizar una experiencia académica enriquecedora en el extranjero</t>
-  </si>
-  <si>
     <t>Vacantes para intercambio estudiantil</t>
   </si>
   <si>
     <t>Nivel de idioma para intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Cursos de intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Para conocer las universidades con las que tenemos convenio en nuestro programa de intercambio, puedes visitar el siguiente enlace http://intercambio.up.edu.pe/UP_OutGoing_Web/Universidad/ConsultaUniversidad. Allí encontrarás una lista completa y actualizada de todas las instituciones con las que tenemos acuerdo. Esta información es esencial para que puedas elegir la universidad de tu preferencia y realizar una experiencia académica enriquecedora en el extranjero. Para conocer las facultades que trabaja la universidad de intercambio lo puedes revisar ingresando a http://intercambio.up.edu.pe/UP_OutGoing_Web/Universidad/ConsultaUniversidad, selecciona la universidad en la que estás interasada y busca la sección "FACULTADES".</t>
+  </si>
+  <si>
+    <t>Si has sido admitido en una universidad de intercambio, hay varias cosas que debes conocer para facilitar el proceso. Para conocer los pasos que debes seguir después de haber sido aceptado, puedes acceder a http://intercambio.up.edu.pe/UP_OutGoing_Web/Universidad/ConsultaUniversidad, seleccionar la universidad en la que has sido aceptado y buscar la sección "UNA VEZ QUE SE OTORGA LA VACANTE". Si necesitas información sobre cómo tramitar tu visa, puedes visitar el mismo enlace, seleccionar la universidad en la que has sido admitido y buscar la sección "Visa". Si necesitas opciones de alojamiento, puedes encontrar información en el enlace mencionado anteriormente, seleccionar la universidad en la que has sido admitido y buscar la sección "Acommodation". Para obtener información sobre apoyos financieros para programas de intercambio, puedes visitar http://intercambio.up.edu.pe/UP_OutGoing_Web/Informativo/Bienvenida y buscar "BECAS Y APOYO FINANCIERO" o visitar https://issuu.com/upacificoup/docs/catalogobecas. Con esta información, estarás mejor preparado para enfrentar tu intercambio universitario con éxito.</t>
+  </si>
+  <si>
+    <t>Pasos luego de ser admitido en intercambio estudiantil</t>
+  </si>
+  <si>
+    <t>Inscripcion a intercambio estudiantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para saber cómo inscribirte en el programa de intercambio, puedes acceder a http://intercambio.up.edu.pe/UP_OutGoing_Web/Informativo/Bienvenida y hacer clic en "Inscribirse". Si necesitas información sobre los pagos del programa de intercambio, puedes visitar http://ori.up.edu.pe/outgoing/programas-de-intercambio/inicia-aplicacion/ y buscar la sección "PAGOS". </t>
+  </si>
+  <si>
+    <t>Oficina de Relaciones Internacionales (ORI)</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2105,6 +2123,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5B9E24-B455-4B83-8575-F00C6E8FFDFD}">
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,7 +4512,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A258" s="27" t="s">
+      <c r="A258" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -4625,12 +4647,12 @@
         <v>513</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A275" s="27" t="s">
+    <row r="275" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4729,389 +4751,415 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="B288" s="2"/>
+    <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="18" t="s">
-        <v>179</v>
+      <c r="A289" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="18" t="s">
-        <v>489</v>
+      <c r="A290" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>492</v>
-      </c>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B291" s="2"/>
     </row>
     <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B295" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="27"/>
-      <c r="B293" s="2"/>
-    </row>
-    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>497</v>
-      </c>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B296" s="2"/>
     </row>
     <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="19" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="19" t="s">
-        <v>182</v>
+        <v>494</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>244</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="19" t="s">
-        <v>249</v>
+        <v>496</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="19" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>520</v>
+        <v>243</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B304" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="B302" s="2" t="s">
+    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="24" t="s">
+    <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B306" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="24" t="s">
+    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B307" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A305" s="24" t="s">
+    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B308" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+    <row r="309" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A309" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B310" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+    <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B311" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+    <row r="312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B312" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+    <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B313" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+    <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A314" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B314" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B315" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B316" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B317" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B318" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B319" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+    <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B320" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B321" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B322" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B323" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B324" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+    <row r="325" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B325" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+    <row r="326" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B327" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B328" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B329" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B330" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B331" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B332" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B333" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B334" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+    <row r="335" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B336" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+    <row r="337" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B337" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+    <row r="338" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A338" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B338" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B339" s="2" t="s">
         <v>549</v>
       </c>
     </row>
